--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Pf4</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N2">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O2">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P2">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q2">
-        <v>4.012683181214896</v>
+        <v>0.2263671019333333</v>
       </c>
       <c r="R2">
-        <v>4.012683181214896</v>
+        <v>2.0373039174</v>
       </c>
       <c r="S2">
-        <v>0.002485567915073891</v>
+        <v>0.0001113119094025538</v>
       </c>
       <c r="T2">
-        <v>0.002485567915073891</v>
+        <v>0.0001113119094025538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N3">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q3">
-        <v>8.591454521264737</v>
+        <v>0.6673206101526666</v>
       </c>
       <c r="R3">
-        <v>8.591454521264737</v>
+        <v>6.005885491374</v>
       </c>
       <c r="S3">
-        <v>0.005321786629416063</v>
+        <v>0.0003281427851722319</v>
       </c>
       <c r="T3">
-        <v>0.005321786629416063</v>
+        <v>0.000328142785172232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>90.7294238303969</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>90.7294238303969</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.4165539070269629</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J4">
-        <v>0.4165539070269629</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.35968498539371</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N4">
-        <v>2.35968498539371</v>
+        <v>16.035208</v>
       </c>
       <c r="O4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q4">
-        <v>214.0928591460098</v>
+        <v>1.501362271521778</v>
       </c>
       <c r="R4">
-        <v>214.0928591460098</v>
+        <v>13.512260443696</v>
       </c>
       <c r="S4">
-        <v>0.13261509008011</v>
+        <v>0.0007382676180448796</v>
       </c>
       <c r="T4">
-        <v>0.13261509008011</v>
+        <v>0.0007382676180448796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H5">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I5">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J5">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.05226187091684</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N5">
-        <v>5.05226187091684</v>
+        <v>2.4177</v>
       </c>
       <c r="O5">
-        <v>0.6816376275843548</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P5">
-        <v>0.6816376275843548</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q5">
-        <v>458.3888085885679</v>
+        <v>1.517124211166667</v>
       </c>
       <c r="R5">
-        <v>458.3888085885679</v>
+        <v>13.6541179005</v>
       </c>
       <c r="S5">
-        <v>0.2839388169468529</v>
+        <v>0.0007460182654789625</v>
       </c>
       <c r="T5">
-        <v>0.2839388169468529</v>
+        <v>0.0007460182654789626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.0872186318405</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H6">
-        <v>59.0872186318405</v>
+        <v>5.647565</v>
       </c>
       <c r="I6">
-        <v>0.2712792690324952</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J6">
-        <v>0.2712792690324952</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.35968498539371</v>
+        <v>2.375759</v>
       </c>
       <c r="N6">
-        <v>2.35968498539371</v>
+        <v>7.127277</v>
       </c>
       <c r="O6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q6">
-        <v>139.4272226342295</v>
+        <v>4.472417792278333</v>
       </c>
       <c r="R6">
-        <v>139.4272226342295</v>
+        <v>40.25176013050501</v>
       </c>
       <c r="S6">
-        <v>0.08636511167636723</v>
+        <v>0.002199230187834762</v>
       </c>
       <c r="T6">
-        <v>0.08636511167636723</v>
+        <v>0.002199230187834762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.0872186318405</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H7">
-        <v>59.0872186318405</v>
+        <v>5.647565</v>
       </c>
       <c r="I7">
-        <v>0.2712792690324952</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J7">
-        <v>0.2712792690324952</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.05226187091684</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N7">
-        <v>5.05226187091684</v>
+        <v>16.035208</v>
       </c>
       <c r="O7">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P7">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q7">
-        <v>298.5241017521748</v>
+        <v>10.06220882983556</v>
       </c>
       <c r="R7">
-        <v>298.5241017521748</v>
+        <v>90.55987946852001</v>
       </c>
       <c r="S7">
-        <v>0.1849141573561279</v>
+        <v>0.004947908366941468</v>
       </c>
       <c r="T7">
-        <v>0.1849141573561279</v>
+        <v>0.004947908366941468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>66.2924025673385</v>
+        <v>103.833693</v>
       </c>
       <c r="H8">
-        <v>66.2924025673385</v>
+        <v>311.501079</v>
       </c>
       <c r="I8">
-        <v>0.304359469396052</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J8">
-        <v>0.304359469396052</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N8">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O8">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P8">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q8">
-        <v>156.4291869838241</v>
+        <v>83.67957318869999</v>
       </c>
       <c r="R8">
-        <v>156.4291869838241</v>
+        <v>753.1161586983</v>
       </c>
       <c r="S8">
-        <v>0.09689660274409408</v>
+        <v>0.04114790970097826</v>
       </c>
       <c r="T8">
-        <v>0.09689660274409408</v>
+        <v>0.04114790970097826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>66.2924025673385</v>
+        <v>103.833693</v>
       </c>
       <c r="H9">
-        <v>66.2924025673385</v>
+        <v>311.501079</v>
       </c>
       <c r="I9">
-        <v>0.304359469396052</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J9">
-        <v>0.304359469396052</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N9">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O9">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P9">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q9">
-        <v>334.9265778224339</v>
+        <v>246.683830647987</v>
       </c>
       <c r="R9">
-        <v>334.9265778224339</v>
+        <v>2220.154475831883</v>
       </c>
       <c r="S9">
-        <v>0.2074628666519579</v>
+        <v>0.121302291603532</v>
       </c>
       <c r="T9">
-        <v>0.2074628666519579</v>
+        <v>0.121302291603532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>103.833693</v>
+      </c>
+      <c r="H10">
+        <v>311.501079</v>
+      </c>
+      <c r="I10">
+        <v>0.435360525505364</v>
+      </c>
+      <c r="J10">
+        <v>0.4353605255053641</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N10">
+        <v>16.035208</v>
+      </c>
+      <c r="O10">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P10">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q10">
+        <v>554.998288221048</v>
+      </c>
+      <c r="R10">
+        <v>4994.984593989432</v>
+      </c>
+      <c r="S10">
+        <v>0.2729103242008538</v>
+      </c>
+      <c r="T10">
+        <v>0.2729103242008538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>63.709236</v>
+      </c>
+      <c r="H11">
+        <v>191.127708</v>
+      </c>
+      <c r="I11">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J11">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.4177</v>
+      </c>
+      <c r="O11">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P11">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q11">
+        <v>51.3432732924</v>
+      </c>
+      <c r="R11">
+        <v>462.0894596316001</v>
+      </c>
+      <c r="S11">
+        <v>0.02524712176081721</v>
+      </c>
+      <c r="T11">
+        <v>0.02524712176081722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>63.709236</v>
+      </c>
+      <c r="H12">
+        <v>191.127708</v>
+      </c>
+      <c r="I12">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J12">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.375759</v>
+      </c>
+      <c r="N12">
+        <v>7.127277</v>
+      </c>
+      <c r="O12">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P12">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q12">
+        <v>151.357790810124</v>
+      </c>
+      <c r="R12">
+        <v>1362.220117291116</v>
+      </c>
+      <c r="S12">
+        <v>0.07442744353810314</v>
+      </c>
+      <c r="T12">
+        <v>0.07442744353810317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>63.709236</v>
+      </c>
+      <c r="H13">
+        <v>191.127708</v>
+      </c>
+      <c r="I13">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J13">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N13">
+        <v>16.035208</v>
+      </c>
+      <c r="O13">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P13">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q13">
+        <v>340.5302835936961</v>
+      </c>
+      <c r="R13">
+        <v>3064.772552343265</v>
+      </c>
+      <c r="S13">
+        <v>0.1674495796980726</v>
+      </c>
+      <c r="T13">
+        <v>0.1674495796980727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H14">
+        <v>205.966888</v>
+      </c>
+      <c r="I14">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J14">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.4177</v>
+      </c>
+      <c r="O14">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P14">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q14">
+        <v>55.32957167973333</v>
+      </c>
+      <c r="R14">
+        <v>497.9661451176</v>
+      </c>
+      <c r="S14">
+        <v>0.02720731156380843</v>
+      </c>
+      <c r="T14">
+        <v>0.02720731156380843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H15">
+        <v>205.966888</v>
+      </c>
+      <c r="I15">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J15">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.375759</v>
+      </c>
+      <c r="N15">
+        <v>7.127277</v>
+      </c>
+      <c r="O15">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P15">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q15">
+        <v>163.1092292893307</v>
+      </c>
+      <c r="R15">
+        <v>1467.983063603976</v>
+      </c>
+      <c r="S15">
+        <v>0.08020599989269382</v>
+      </c>
+      <c r="T15">
+        <v>0.08020599989269384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H16">
+        <v>205.966888</v>
+      </c>
+      <c r="I16">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J16">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N16">
+        <v>16.035208</v>
+      </c>
+      <c r="O16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q16">
+        <v>366.9690989103005</v>
+      </c>
+      <c r="R16">
+        <v>3302.721890192704</v>
+      </c>
+      <c r="S16">
+        <v>0.180450386750413</v>
+      </c>
+      <c r="T16">
+        <v>0.180450386750413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.415529</v>
+      </c>
+      <c r="I17">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J17">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.4177</v>
+      </c>
+      <c r="O17">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P17">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q17">
+        <v>0.1116249403666667</v>
+      </c>
+      <c r="R17">
+        <v>1.0046244633</v>
+      </c>
+      <c r="S17">
+        <v>5.488953625787535E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.488953625787536E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.415529</v>
+      </c>
+      <c r="I18">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J18">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.375759</v>
+      </c>
+      <c r="N18">
+        <v>7.127277</v>
+      </c>
+      <c r="O18">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P18">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q18">
+        <v>0.3290655871703334</v>
+      </c>
+      <c r="R18">
+        <v>2.961590284533</v>
+      </c>
+      <c r="S18">
+        <v>0.0001618120235394884</v>
+      </c>
+      <c r="T18">
+        <v>0.0001618120235394884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.415529</v>
+      </c>
+      <c r="I19">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J19">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N19">
+        <v>16.035208</v>
+      </c>
+      <c r="O19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q19">
+        <v>0.7403437716702224</v>
+      </c>
+      <c r="R19">
+        <v>6.663093945032</v>
+      </c>
+      <c r="S19">
+        <v>0.0003640505980554134</v>
+      </c>
+      <c r="T19">
+        <v>0.0003640505980554134</v>
       </c>
     </row>
   </sheetData>
